--- a/output/fit_clients/fit_round_125.xlsx
+++ b/output/fit_clients/fit_round_125.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1765990156.410781</v>
+        <v>1558664281.982093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07645546353949906</v>
+        <v>0.1147519387855389</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03861591239471278</v>
+        <v>0.0298075388040066</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>882995042.3605469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2040454669.639278</v>
+        <v>2254060455.091893</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1326093673416714</v>
+        <v>0.1845369094344347</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04018949563810657</v>
+        <v>0.03870085717485858</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1020227381.094298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5067492156.30038</v>
+        <v>4739477128.321634</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1488830440527268</v>
+        <v>0.1303548302056579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515865526148</v>
+        <v>0.03257513163949657</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2533746167.900258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2889245107.928886</v>
+        <v>3962247017.268592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07840372173599601</v>
+        <v>0.07957969345051817</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05049313083433529</v>
+        <v>0.04984240781748506</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1444622631.055522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1984105141.03411</v>
+        <v>1940854382.545833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1253690817616076</v>
+        <v>0.114179093050703</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05371441478210029</v>
+        <v>0.04740853606568297</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>992052601.7795284</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2362990644.075395</v>
+        <v>2356891447.230168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07244785605400693</v>
+        <v>0.06953381606261648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04669478510168742</v>
+        <v>0.03341471185538358</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1181495348.208554</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3982258136.206156</v>
+        <v>2562517123.177158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21382447336684</v>
+        <v>0.219281351915213</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0262722300073119</v>
+        <v>0.02833722664773901</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1991129225.978355</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1769718070.765498</v>
+        <v>1776066266.35815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1577751907487875</v>
+        <v>0.1807361282584773</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0341879649404796</v>
+        <v>0.0344385946786676</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>884859093.9018713</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4645529057.406611</v>
+        <v>4474938242.328002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21599354497825</v>
+        <v>0.1779747103280303</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05450147463077039</v>
+        <v>0.03593278480896649</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>53</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2322764600.519227</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2910846241.281286</v>
+        <v>3599809201.920041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1294949297648718</v>
+        <v>0.1694179585345361</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03850898769149182</v>
+        <v>0.04175056339487476</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>52</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1455423057.306865</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2888395928.16965</v>
+        <v>3172994144.388097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1537607748353314</v>
+        <v>0.191399211779521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04447407289262794</v>
+        <v>0.03594750692634349</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1444197971.810964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3837938654.185768</v>
+        <v>3274017342.282164</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09751873430304465</v>
+        <v>0.06953153900877748</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02721982776493551</v>
+        <v>0.02134541588072731</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1918969390.206924</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3418411176.116183</v>
+        <v>2847812275.614492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1833297240888823</v>
+        <v>0.1684521915646599</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02710316569340319</v>
+        <v>0.04021856196575002</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1709205592.156314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1344915155.365271</v>
+        <v>1674463259.348988</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08454491101756444</v>
+        <v>0.09144496515237373</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04029498374727011</v>
+        <v>0.03431042644854695</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>672457627.9703742</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2868777907.050882</v>
+        <v>2057441089.997821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105988731141033</v>
+        <v>0.09846970618371259</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04483688372814655</v>
+        <v>0.0407090525493622</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1434388951.331927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4205699325.897091</v>
+        <v>3286113897.362538</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1720104320598562</v>
+        <v>0.1282951057017421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04471475060699991</v>
+        <v>0.03538051657381417</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2102849687.279219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3127054537.504614</v>
+        <v>2418372773.372077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1800055915218736</v>
+        <v>0.1142424711812788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02413466265803417</v>
+        <v>0.03183071706522211</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1563527289.739232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1306993507.967692</v>
+        <v>1020563803.524811</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1901982323306369</v>
+        <v>0.18447217627992</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01759464852497244</v>
+        <v>0.02077652949603474</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>653496857.901963</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1958523662.551203</v>
+        <v>2179123983.169064</v>
       </c>
       <c r="F20" t="n">
-        <v>0.124785344543501</v>
+        <v>0.1302696056518383</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02056509165947155</v>
+        <v>0.0267168960217884</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" t="n">
-        <v>979261862.0020685</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2085856975.165528</v>
+        <v>2268272679.020283</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09684926814837681</v>
+        <v>0.06709304909233046</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04463323356837071</v>
+        <v>0.03569018968772028</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1042928515.281415</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3052737776.279489</v>
+        <v>3977479813.216092</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1228280218655305</v>
+        <v>0.1119086980646639</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04561971141620938</v>
+        <v>0.04450048876372946</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1526368946.464328</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1002201612.083213</v>
+        <v>941413913.8863013</v>
       </c>
       <c r="F23" t="n">
-        <v>0.182164158589752</v>
+        <v>0.1185743781956442</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04896573951805661</v>
+        <v>0.03913119538166265</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>501100875.8029441</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2913795355.890968</v>
+        <v>3036525450.373246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1050327065269143</v>
+        <v>0.1115826360589618</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02318601681043492</v>
+        <v>0.02808484307128857</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>36</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1456897718.929998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>990780449.5897512</v>
+        <v>1228501816.134066</v>
       </c>
       <c r="F25" t="n">
-        <v>0.082650603349421</v>
+        <v>0.09586092826681043</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01871110930545873</v>
+        <v>0.02746799374781837</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>495390290.8487577</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1411679924.379752</v>
+        <v>881305338.2042561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1013496347921738</v>
+        <v>0.07806317770579434</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02461862370104901</v>
+        <v>0.02825750397897428</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>705840034.9761896</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3985195953.822399</v>
+        <v>4615742708.203763</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1150066992270807</v>
+        <v>0.1546083109973752</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02174930099212652</v>
+        <v>0.02593730847104393</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1992597987.748957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2454826088.027198</v>
+        <v>3054608014.524001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1122009557514926</v>
+        <v>0.09590320340187353</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03989118374842994</v>
+        <v>0.03259361596946417</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1227413007.872875</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5144958403.324979</v>
+        <v>4633663966.672006</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1116585923703586</v>
+        <v>0.1242412733508142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03356851109617678</v>
+        <v>0.03627419424344478</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2572479139.12966</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1870720145.25517</v>
+        <v>2126013807.604814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1101701573918623</v>
+        <v>0.09088539023115398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03756012595061817</v>
+        <v>0.03854390293482084</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>935360095.3142651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1045042187.557694</v>
+        <v>1228374718.705279</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1122158090094438</v>
+        <v>0.07072318757170372</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04399702136529186</v>
+        <v>0.03317708882858717</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>522521081.6525561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1679311860.86795</v>
+        <v>1364022374.302484</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1002825654411334</v>
+        <v>0.1113596068736341</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128610556087089</v>
+        <v>0.03541819501102877</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>839656035.8787841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1985387271.020015</v>
+        <v>2587412157.757942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.141268874242614</v>
+        <v>0.177315362497255</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06055115421643083</v>
+        <v>0.04036760906622989</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>38</v>
-      </c>
-      <c r="J33" t="n">
-        <v>992693717.4948491</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1251894541.065172</v>
+        <v>1497885747.844499</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08741226437955557</v>
+        <v>0.08939282959827403</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02156521534566924</v>
+        <v>0.02404723643108469</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>625947267.0103521</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1252448042.05514</v>
+        <v>1152867298.555173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08552846834061015</v>
+        <v>0.1100342622858129</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04010198978528137</v>
+        <v>0.03116544704351879</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>626223984.1944197</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3015679840.138253</v>
+        <v>2929031093.543099</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1572520013595262</v>
+        <v>0.1333944689232367</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02532960127370615</v>
+        <v>0.019555599503544</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1507839900.682182</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2145889638.463576</v>
+        <v>2056486412.308183</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004920588405132</v>
+        <v>0.07397293032183681</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0308930054862326</v>
+        <v>0.04031798957016442</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1072944866.528736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2140601619.963348</v>
+        <v>1938489837.409312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09497483633063689</v>
+        <v>0.08284059935248882</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03256156942624223</v>
+        <v>0.03223661868076651</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1070300768.700304</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1666585632.542878</v>
+        <v>1397373690.899908</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1428014419361233</v>
+        <v>0.1818673486257059</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03201420360533713</v>
+        <v>0.02531165466006763</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>833292861.3674705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1444424127.073706</v>
+        <v>1203629725.30766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216741625428713</v>
+        <v>0.1359945107432702</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05647951635261067</v>
+        <v>0.05548515286896585</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>722212043.6077025</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2795131000.686189</v>
+        <v>2656664909.511821</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1261485790510001</v>
+        <v>0.1313263562481467</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0465304676637248</v>
+        <v>0.03734347307935265</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1397565496.680777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4202936396.974302</v>
+        <v>3085114583.170015</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1244140387211094</v>
+        <v>0.1080418843210916</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02821789699923292</v>
+        <v>0.03564952803228062</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2101468241.675201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2676542855.597559</v>
+        <v>2761643788.869663</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1623401530550216</v>
+        <v>0.1607291587298007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01881728515088441</v>
+        <v>0.02302891015457926</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>40</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1338271458.656702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1424983335.027746</v>
+        <v>2166476380.176003</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09601053753581695</v>
+        <v>0.09808235274925925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02877956040577843</v>
+        <v>0.02728837294773499</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>712491659.0639709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2030124922.99947</v>
+        <v>1609139182.995456</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1471371093588535</v>
+        <v>0.1631553436585665</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04223324378805013</v>
+        <v>0.04233620095372754</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1015062455.339271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5704913907.016468</v>
+        <v>4197698622.738131</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1553620989516024</v>
+        <v>0.1512893516604935</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03991757256085334</v>
+        <v>0.04654529754686552</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>45</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2852457020.603965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3283564241.347759</v>
+        <v>4868159114.646347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.168383019707345</v>
+        <v>0.1770081689502274</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04938903094872772</v>
+        <v>0.04734259213146561</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>33</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1641782079.170748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4045653855.158669</v>
+        <v>3720744733.864928</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08103097914611512</v>
+        <v>0.0843807415906903</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03575598916090827</v>
+        <v>0.02725977833235301</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2022826959.270087</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1878407478.44058</v>
+        <v>1635698180.067104</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1738721463573141</v>
+        <v>0.1617691009895248</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03258286847720549</v>
+        <v>0.03854770610016579</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>939203712.3427124</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3161253633.947097</v>
+        <v>3823108683.73725</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1747578618827885</v>
+        <v>0.1764581395787797</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0364761449628322</v>
+        <v>0.04650205428693736</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>43</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1580626865.276509</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>971129406.8173831</v>
+        <v>1483119552.62852</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1330631797738926</v>
+        <v>0.1469677103706581</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03941573840519169</v>
+        <v>0.05056660830059669</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>485564792.0111866</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4859843570.27198</v>
+        <v>4104177212.1135</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09385325623515799</v>
+        <v>0.1214380536477709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04119956117867572</v>
+        <v>0.05491786089271714</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>52</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2429921790.959731</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3514996468.096806</v>
+        <v>3115026641.491189</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1413626514589158</v>
+        <v>0.1750275771095064</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02966124157010295</v>
+        <v>0.02568047551525288</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>36</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1757498230.840445</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3757656984.767969</v>
+        <v>4961311854.602773</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1459843034860632</v>
+        <v>0.1293117812691558</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03352873807525308</v>
+        <v>0.05045272709341026</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1878828537.376269</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3188099564.774232</v>
+        <v>3107594826.14399</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2105774123402632</v>
+        <v>0.21870136286574</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02559989401074669</v>
+        <v>0.02622442570560165</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1594049721.405998</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1138801652.077492</v>
+        <v>1379875594.707667</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1308265831029346</v>
+        <v>0.1028995831842667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05359879567999788</v>
+        <v>0.05631182009930663</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>569400921.778417</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3970519344.771152</v>
+        <v>4149542282.875914</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1678638121720908</v>
+        <v>0.1183813837180629</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0186297472185537</v>
+        <v>0.02049843670967122</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1985259758.231383</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1483475986.951633</v>
+        <v>1624289273.231297</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1696830227839946</v>
+        <v>0.1799258204838869</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03483325974161903</v>
+        <v>0.02822242818846775</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>741738026.0621923</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4893986255.268925</v>
+        <v>4420262969.485758</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1308868047496519</v>
+        <v>0.09904684592759325</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04324811542456788</v>
+        <v>0.03455464258457231</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2446993060.390866</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2533713075.018821</v>
+        <v>2651628790.854771</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2044467640251335</v>
+        <v>0.1935341936414067</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02030577742274941</v>
+        <v>0.03292873880732487</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1266856558.912686</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2475481661.85423</v>
+        <v>2436757247.76516</v>
       </c>
       <c r="F61" t="n">
-        <v>0.142803754169458</v>
+        <v>0.1413110160485959</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03310654126063501</v>
+        <v>0.03078931162589163</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1237740860.810016</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326243156.58756</v>
+        <v>2087530881.533581</v>
       </c>
       <c r="F62" t="n">
-        <v>0.177684090991196</v>
+        <v>0.1784565554771393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04605854358323345</v>
+        <v>0.04749098204840237</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>663121535.2453154</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3683932437.262372</v>
+        <v>5395148319.988637</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1053990727472929</v>
+        <v>0.1037056918860724</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04327952737694834</v>
+        <v>0.03163338318859034</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1841966295.055536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3856078409.326408</v>
+        <v>4391595178.018931</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1521974537286593</v>
+        <v>0.1778327634402764</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02740855202007609</v>
+        <v>0.03417033178744468</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>39</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1928039230.347213</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3913016780.414686</v>
+        <v>3871121030.564866</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1744489045475473</v>
+        <v>0.1454817186618198</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02891560443413714</v>
+        <v>0.03087483307477058</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>45</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1956508413.903919</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4921918857.951506</v>
+        <v>5227964003.925707</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1179581965596405</v>
+        <v>0.1490416401136993</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0466258578558297</v>
+        <v>0.04819846893258384</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>36</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2460959451.935233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2564102750.138944</v>
+        <v>2543569154.02679</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09115041050439013</v>
+        <v>0.093635876816243</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05035084651088936</v>
+        <v>0.03681931168938661</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1282051430.205629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3993876494.438176</v>
+        <v>5602231027.152339</v>
       </c>
       <c r="F68" t="n">
-        <v>0.109368207615294</v>
+        <v>0.1590073383448911</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04196314224627536</v>
+        <v>0.03354808970453524</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1996938242.590524</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1986389199.175254</v>
+        <v>1679453092.301287</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1623470866372601</v>
+        <v>0.119593060140979</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04862404521168114</v>
+        <v>0.04473957810011543</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>993194602.7208592</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3636419489.117249</v>
+        <v>3668825929.496129</v>
       </c>
       <c r="F70" t="n">
-        <v>0.103317757272672</v>
+        <v>0.1029601385362654</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03914379657774561</v>
+        <v>0.04254434691455279</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>36</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1818209762.96032</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4516063252.511849</v>
+        <v>3432103113.883824</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1781351768331081</v>
+        <v>0.1288503216405065</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02683449472263779</v>
+        <v>0.03122437663353975</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>46</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2258031695.763284</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1652235720.736553</v>
+        <v>2282651186.995789</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08072108608257371</v>
+        <v>0.0766639017670102</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05026986562243776</v>
+        <v>0.04585778018581535</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>826117862.7202774</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2336038900.998993</v>
+        <v>2375360788.494034</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08331226891502004</v>
+        <v>0.08289387399998657</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03557465932419337</v>
+        <v>0.04385819300894017</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>48</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1168019507.228335</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3769992472.733679</v>
+        <v>3844563674.368552</v>
       </c>
       <c r="F74" t="n">
-        <v>0.118752985405207</v>
+        <v>0.1423059035887715</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02673488839048345</v>
+        <v>0.03248291143389897</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>43</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1884996235.167194</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1682176294.13204</v>
+        <v>1566154927.947529</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1361325853767293</v>
+        <v>0.1672724450056</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03218934751611673</v>
+        <v>0.03303910125298432</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>841088140.975104</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4082048347.01919</v>
+        <v>3639585847.755126</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09314771356839847</v>
+        <v>0.09694453188339336</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02320058684404725</v>
+        <v>0.02611450977267363</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2041024161.62863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1475198849.677077</v>
+        <v>1518081290.527089</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1720364045405914</v>
+        <v>0.1655683322127193</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03081996444754438</v>
+        <v>0.02734947189081028</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>737599408.7803737</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3766933307.051661</v>
+        <v>3756390896.384297</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08266990079178693</v>
+        <v>0.1318814109262256</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03732831521000698</v>
+        <v>0.04573050465157372</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>43</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1883466635.900873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1197314189.391266</v>
+        <v>1194144812.196461</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256795154248252</v>
+        <v>0.1428127048781254</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03150869064573281</v>
+        <v>0.03921493964558203</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>598657075.8728527</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4217691526.67909</v>
+        <v>4098061576.337565</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10103961336795</v>
+        <v>0.08050418404673911</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03064438529240048</v>
+        <v>0.03352239998551616</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2108845773.592381</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3780634909.826574</v>
+        <v>4422287357.034444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1324852374050194</v>
+        <v>0.1144106718538177</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02729774062592545</v>
+        <v>0.02873306898482889</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1890317409.938088</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3703142624.078761</v>
+        <v>4574527218.18369</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1577948352245831</v>
+        <v>0.1676369650758404</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02442899624170113</v>
+        <v>0.02084832482052263</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1851571368.310633</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2019532725.167872</v>
+        <v>2459198136.335639</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1060440844470311</v>
+        <v>0.09788354712189998</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0379398525101725</v>
+        <v>0.0398982831769712</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1009766350.29607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1930787592.196418</v>
+        <v>1761886432.836816</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07452598224845808</v>
+        <v>0.1212003542601842</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03344188279023921</v>
+        <v>0.03260867403399921</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>965393811.1778138</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2893252021.482532</v>
+        <v>2299346783.756189</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1467650918302315</v>
+        <v>0.1207328535534593</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04173704916231905</v>
+        <v>0.0369897734904081</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1446626059.057889</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2518362454.690229</v>
+        <v>2784854479.209187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282725615542411</v>
+        <v>0.1621448881296628</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02450832156232846</v>
+        <v>0.0190317122081034</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>13</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1259181327.018514</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1094156625.623548</v>
+        <v>1031523141.925935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830958244682397</v>
+        <v>0.1337396160210166</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04170424163951718</v>
+        <v>0.03591441651990267</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>547078341.2125412</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3566781728.648164</v>
+        <v>3375226976.235461</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1442743093205073</v>
+        <v>0.1699111763995507</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03878324998698925</v>
+        <v>0.03760468744973762</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1783390950.719956</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2878619106.966246</v>
+        <v>3411547375.907235</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1297342324263995</v>
+        <v>0.1175152978925109</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04151285028163071</v>
+        <v>0.04182593144545629</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>44</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1439309600.437393</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1676511749.914828</v>
+        <v>1321966902.455093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048843790161184</v>
+        <v>0.08782486799660086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04393333518246771</v>
+        <v>0.0522460074542777</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>838255885.9787954</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1302421711.086466</v>
+        <v>1797352452.715382</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1287830952890077</v>
+        <v>0.1580767015283824</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04747235192126145</v>
+        <v>0.05132734538619839</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>651210920.7369063</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1930392125.999979</v>
+        <v>1855128587.46235</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08337316668422178</v>
+        <v>0.07058075003627523</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03325421901876423</v>
+        <v>0.04262587887065007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>965196003.8761311</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4928781280.996585</v>
+        <v>4660641979.100547</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1029572793786147</v>
+        <v>0.1202386631572584</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04790170490767855</v>
+        <v>0.03329784350843967</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>38</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2464390580.986962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2356220675.474361</v>
+        <v>2004530710.91346</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125736379221924</v>
+        <v>0.1627897660210041</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03733962788167573</v>
+        <v>0.03967213814854339</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1178110382.461793</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2692742577.889337</v>
+        <v>2601027008.717708</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08443432619965989</v>
+        <v>0.134992152781716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03405313644721899</v>
+        <v>0.04077825696431023</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>30</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1346371310.957327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1561477017.281477</v>
+        <v>1855420642.180932</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1288903327206953</v>
+        <v>0.1097380334211295</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03410173843907666</v>
+        <v>0.03241530315887692</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>780738542.3898321</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5005707912.986634</v>
+        <v>4562139717.649595</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1589332785788649</v>
+        <v>0.1692367744115625</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0217845165411951</v>
+        <v>0.02238382448455397</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2502854093.695025</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3666356469.545678</v>
+        <v>2784467364.239431</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014669833266666</v>
+        <v>0.1092841680410209</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0241780817396429</v>
+        <v>0.02602290834740578</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>33</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1833178264.596605</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2347545575.422212</v>
+        <v>2581531035.822997</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1225359074838219</v>
+        <v>0.1337402342989781</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02908778960880523</v>
+        <v>0.03297677462280457</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>38</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1173772726.364469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3028901847.054014</v>
+        <v>4730114581.30384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1508949766050846</v>
+        <v>0.1747272652250173</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01940982599517587</v>
+        <v>0.01876045560726223</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>38</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1514450916.639603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3439803508.926111</v>
+        <v>3336637301.44923</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1772708880151995</v>
+        <v>0.2044279305888456</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03868663790365928</v>
+        <v>0.05234159482804703</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>52</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1719901901.581237</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_125.xlsx
+++ b/output/fit_clients/fit_round_125.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1558664281.982093</v>
+        <v>1831903342.778974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147519387855389</v>
+        <v>0.09623276917667872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0298075388040066</v>
+        <v>0.03849967286381286</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2254060455.091893</v>
+        <v>2210957498.097958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845369094344347</v>
+        <v>0.1706331600771098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03870085717485858</v>
+        <v>0.03465346779593004</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4739477128.321634</v>
+        <v>5108519772.733978</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1303548302056579</v>
+        <v>0.1377888818550293</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03257513163949657</v>
+        <v>0.02901482352259763</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3962247017.268592</v>
+        <v>2727681454.62186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07957969345051817</v>
+        <v>0.07969832005959072</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04984240781748506</v>
+        <v>0.04265410555070309</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1940854382.545833</v>
+        <v>1952185179.180243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114179093050703</v>
+        <v>0.1021007267813619</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04740853606568297</v>
+        <v>0.03965086781442775</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2356891447.230168</v>
+        <v>2719078024.466047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06953381606261648</v>
+        <v>0.07644947255100332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03341471185538358</v>
+        <v>0.03281501943674364</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2562517123.177158</v>
+        <v>3425460423.807494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.219281351915213</v>
+        <v>0.2033433006405169</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02833722664773901</v>
+        <v>0.03332465372419454</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776066266.35815</v>
+        <v>1409535517.655809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1807361282584773</v>
+        <v>0.1881797097159344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0344385946786676</v>
+        <v>0.03698891795606802</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4474938242.328002</v>
+        <v>5898153971.722689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1779747103280303</v>
+        <v>0.2146800995866963</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03593278480896649</v>
+        <v>0.05322011499602592</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3599809201.920041</v>
+        <v>3067172247.225601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1694179585345361</v>
+        <v>0.1174342720059373</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04175056339487476</v>
+        <v>0.03066889875030614</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3172994144.388097</v>
+        <v>3287570850.802622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.191399211779521</v>
+        <v>0.1417508100617377</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03594750692634349</v>
+        <v>0.0397781426682576</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3274017342.282164</v>
+        <v>5293666541.436732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06953153900877748</v>
+        <v>0.06968232056653341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02134541588072731</v>
+        <v>0.03047102933018941</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2847812275.614492</v>
+        <v>2569147161.416738</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1684521915646599</v>
+        <v>0.1308677157275454</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04021856196575002</v>
+        <v>0.02836569734802566</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1674463259.348988</v>
+        <v>1829036895.464763</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09144496515237373</v>
+        <v>0.07192643385227381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03431042644854695</v>
+        <v>0.03647169510046978</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2057441089.997821</v>
+        <v>2780568309.429801</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09846970618371259</v>
+        <v>0.1068305089540314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0407090525493622</v>
+        <v>0.0499130024737896</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3286113897.362538</v>
+        <v>4288232801.958501</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1282951057017421</v>
+        <v>0.1655680703175753</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03538051657381417</v>
+        <v>0.04864720420303505</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2418372773.372077</v>
+        <v>3496195360.381781</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1142424711812788</v>
+        <v>0.1138580697665615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03183071706522211</v>
+        <v>0.0296894036883233</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1020563803.524811</v>
+        <v>1181080012.609671</v>
       </c>
       <c r="F19" t="n">
-        <v>0.18447217627992</v>
+        <v>0.1213150865284283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02077652949603474</v>
+        <v>0.01684990571148822</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2179123983.169064</v>
+        <v>2355602940.744429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1302696056518383</v>
+        <v>0.1300703003201654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0267168960217884</v>
+        <v>0.02334895111820511</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2268272679.020283</v>
+        <v>2383337169.026496</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06709304909233046</v>
+        <v>0.09195810339149563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03569018968772028</v>
+        <v>0.04343603810484226</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3977479813.216092</v>
+        <v>3380789827.963656</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1119086980646639</v>
+        <v>0.1343272053278565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04450048876372946</v>
+        <v>0.04008076250773061</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>941413913.8863013</v>
+        <v>956910674.7121723</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1185743781956442</v>
+        <v>0.1187387410846931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03913119538166265</v>
+        <v>0.03877438101964484</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3036525450.373246</v>
+        <v>3759825830.987846</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1115826360589618</v>
+        <v>0.09774738319310529</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02808484307128857</v>
+        <v>0.02889621088995847</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1228501816.134066</v>
+        <v>1191221751.920844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09586092826681043</v>
+        <v>0.0850172776260205</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02746799374781837</v>
+        <v>0.02102136471303332</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>881305338.2042561</v>
+        <v>1400623274.849011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07806317770579434</v>
+        <v>0.09619152249670254</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02825750397897428</v>
+        <v>0.03305195383183123</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4615742708.203763</v>
+        <v>3890702375.003055</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1546083109973752</v>
+        <v>0.09667345877488581</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02593730847104393</v>
+        <v>0.02684332723405406</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3054608014.524001</v>
+        <v>2940545057.674515</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09590320340187353</v>
+        <v>0.1127254101196975</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03259361596946417</v>
+        <v>0.03559021170064307</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4633663966.672006</v>
+        <v>5456765723.667082</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1242412733508142</v>
+        <v>0.09590013795364882</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03627419424344478</v>
+        <v>0.04432778548288203</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2126013807.604814</v>
+        <v>2334827890.527215</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09088539023115398</v>
+        <v>0.08597532080053731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03854390293482084</v>
+        <v>0.03491548536905638</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1228374718.705279</v>
+        <v>916959740.4513865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07072318757170372</v>
+        <v>0.0836136257270808</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03317708882858717</v>
+        <v>0.04435376034448873</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1364022374.302484</v>
+        <v>1317697899.601982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1113596068736341</v>
+        <v>0.1119199861543645</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03541819501102877</v>
+        <v>0.02987258242073383</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2587412157.757942</v>
+        <v>1966588219.232445</v>
       </c>
       <c r="F33" t="n">
-        <v>0.177315362497255</v>
+        <v>0.1346127067714765</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04036760906622989</v>
+        <v>0.04026038495788425</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1497885747.844499</v>
+        <v>1006483859.357545</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08939282959827403</v>
+        <v>0.09962459082767616</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02404723643108469</v>
+        <v>0.02328204125753067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1152867298.555173</v>
+        <v>870672390.2091509</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1100342622858129</v>
+        <v>0.07141606382810022</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03116544704351879</v>
+        <v>0.03921473363363669</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2929031093.543099</v>
+        <v>2512901967.018088</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1333944689232367</v>
+        <v>0.1515130391246617</v>
       </c>
       <c r="G36" t="n">
-        <v>0.019555599503544</v>
+        <v>0.01753667471090667</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2056486412.308183</v>
+        <v>2003313823.366154</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07397293032183681</v>
+        <v>0.07253079538772125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04031798957016442</v>
+        <v>0.03266268142834557</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1938489837.409312</v>
+        <v>1753623802.356941</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08284059935248882</v>
+        <v>0.1182323814842207</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03223661868076651</v>
+        <v>0.03671010705430194</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1397373690.899908</v>
+        <v>1453988058.842395</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1818673486257059</v>
+        <v>0.1481907448624666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02531165466006763</v>
+        <v>0.02664779939033976</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1203629725.30766</v>
+        <v>1117002424.483437</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1359945107432702</v>
+        <v>0.1020231547636006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05548515286896585</v>
+        <v>0.03758256586817069</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2656664909.511821</v>
+        <v>2264999469.851242</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1313263562481467</v>
+        <v>0.119756567099283</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03734347307935265</v>
+        <v>0.04585484911136178</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3085114583.170015</v>
+        <v>2931920333.791849</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1080418843210916</v>
+        <v>0.1056768670399502</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03564952803228062</v>
+        <v>0.04467226698073769</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2761643788.869663</v>
+        <v>2332058734.134844</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1607291587298007</v>
+        <v>0.1581393229442884</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02302891015457926</v>
+        <v>0.02357911883490826</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2166476380.176003</v>
+        <v>1927415522.306354</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09808235274925925</v>
+        <v>0.07374869161170501</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02728837294773499</v>
+        <v>0.02882824457610389</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1609139182.995456</v>
+        <v>1937752906.18892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1631553436585665</v>
+        <v>0.1843326256931112</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04233620095372754</v>
+        <v>0.03561033828798552</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4197698622.738131</v>
+        <v>4496578898.351907</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1512893516604935</v>
+        <v>0.1339697673788981</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04654529754686552</v>
+        <v>0.05880663950490338</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4868159114.646347</v>
+        <v>3810549592.636346</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1770081689502274</v>
+        <v>0.1237992590953676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04734259213146561</v>
+        <v>0.04440718833288834</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3720744733.864928</v>
+        <v>3778827837.434928</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0843807415906903</v>
+        <v>0.06689331761952093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02725977833235301</v>
+        <v>0.02423134015563022</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1635698180.067104</v>
+        <v>1575310405.740455</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1617691009895248</v>
+        <v>0.1689412232437404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03854770610016579</v>
+        <v>0.02827172838356503</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3823108683.73725</v>
+        <v>3489908629.08243</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1764581395787797</v>
+        <v>0.1166597089470236</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04650205428693736</v>
+        <v>0.05205982769453752</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1483119552.62852</v>
+        <v>1302069827.82493</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1469677103706581</v>
+        <v>0.1434418427651689</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05056660830059669</v>
+        <v>0.0466297995902223</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4104177212.1135</v>
+        <v>5081353263.900826</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1214380536477709</v>
+        <v>0.1033403175969358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05491786089271714</v>
+        <v>0.04947218846013721</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3115026641.491189</v>
+        <v>3024113935.107074</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1750275771095064</v>
+        <v>0.1664635358845765</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02568047551525288</v>
+        <v>0.0218962660058346</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4961311854.602773</v>
+        <v>4508897335.251461</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1293117812691558</v>
+        <v>0.1433508375169391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05045272709341026</v>
+        <v>0.0427142261274263</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3107594826.14399</v>
+        <v>3904137170.888204</v>
       </c>
       <c r="F55" t="n">
-        <v>0.21870136286574</v>
+        <v>0.2119252848898413</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02622442570560165</v>
+        <v>0.02651138174306443</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1379875594.707667</v>
+        <v>1567948730.347363</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1028995831842667</v>
+        <v>0.1137808906551789</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05631182009930663</v>
+        <v>0.04881541368241658</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4149542282.875914</v>
+        <v>3610530933.96876</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1183813837180629</v>
+        <v>0.1179216172017866</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02049843670967122</v>
+        <v>0.02742555006833483</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1624289273.231297</v>
+        <v>1490296395.977913</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1799258204838869</v>
+        <v>0.1963799823180307</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02822242818846775</v>
+        <v>0.02983681848848507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4420262969.485758</v>
+        <v>4170468251.835301</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09904684592759325</v>
+        <v>0.09856682784366355</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03455464258457231</v>
+        <v>0.03181374051380993</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2651628790.854771</v>
+        <v>3502563830.686765</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1935341936414067</v>
+        <v>0.1529668966662669</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03292873880732487</v>
+        <v>0.02924958681702238</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2436757247.76516</v>
+        <v>3395380295.466355</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1413110160485959</v>
+        <v>0.1624392421620275</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03078931162589163</v>
+        <v>0.02487344560899843</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2087530881.533581</v>
+        <v>1883564138.199737</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1784565554771393</v>
+        <v>0.1899803257555456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04749098204840237</v>
+        <v>0.03174831407311832</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5395148319.988637</v>
+        <v>5455666636.621069</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1037056918860724</v>
+        <v>0.08790786750530984</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03163338318859034</v>
+        <v>0.04204528773016499</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4391595178.018931</v>
+        <v>4005346280.65537</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1778327634402764</v>
+        <v>0.1262202466225861</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03417033178744468</v>
+        <v>0.02519982858080648</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3871121030.564866</v>
+        <v>4127367044.030333</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1454817186618198</v>
+        <v>0.1110450552500961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03087483307477058</v>
+        <v>0.01953451902294914</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5227964003.925707</v>
+        <v>4878400452.820102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1490416401136993</v>
+        <v>0.1524971133123587</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04819846893258384</v>
+        <v>0.04959855872808799</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2543569154.02679</v>
+        <v>3254735739.952815</v>
       </c>
       <c r="F67" t="n">
-        <v>0.093635876816243</v>
+        <v>0.07537445673227446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03681931168938661</v>
+        <v>0.03136054309808117</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5602231027.152339</v>
+        <v>4157207315.143444</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1590073383448911</v>
+        <v>0.1210199342881668</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03354808970453524</v>
+        <v>0.04724684093821112</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1679453092.301287</v>
+        <v>2430598437.742646</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119593060140979</v>
+        <v>0.1307967041664518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04473957810011543</v>
+        <v>0.05652929879601733</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3668825929.496129</v>
+        <v>2586856650.813813</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1029601385362654</v>
+        <v>0.070617368211324</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04254434691455279</v>
+        <v>0.03019277306101099</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3432103113.883824</v>
+        <v>4828135380.977369</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1288503216405065</v>
+        <v>0.1121684211335083</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03122437663353975</v>
+        <v>0.03087618817261578</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2282651186.995789</v>
+        <v>1937190723.281065</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0766639017670102</v>
+        <v>0.07011555803435474</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04585778018581535</v>
+        <v>0.03487916230970772</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2375360788.494034</v>
+        <v>2629795790.00025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08289387399998657</v>
+        <v>0.07948501191722504</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04385819300894017</v>
+        <v>0.04637430485797721</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3844563674.368552</v>
+        <v>3032714470.089344</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1423059035887715</v>
+        <v>0.1813195610545994</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03248291143389897</v>
+        <v>0.02868732227825989</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1566154927.947529</v>
+        <v>2260900978.046477</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1672724450056</v>
+        <v>0.1657111431785553</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03303910125298432</v>
+        <v>0.02677393423578766</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3639585847.755126</v>
+        <v>4457361392.527925</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09694453188339336</v>
+        <v>0.1079423800995603</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02611450977267363</v>
+        <v>0.02410721104658407</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1518081290.527089</v>
+        <v>2085389791.339596</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1655683322127193</v>
+        <v>0.1448145333950359</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02734947189081028</v>
+        <v>0.0260079184218496</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3756390896.384297</v>
+        <v>3311109104.360868</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1318814109262256</v>
+        <v>0.08895617528865372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04573050465157372</v>
+        <v>0.05402039399678968</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1194144812.196461</v>
+        <v>1194756585.393995</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1428127048781254</v>
+        <v>0.1435180009965673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03921493964558203</v>
+        <v>0.02602749374897407</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4098061576.337565</v>
+        <v>4173815949.989842</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08050418404673911</v>
+        <v>0.08461598049754047</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03352239998551616</v>
+        <v>0.0281005506123868</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4422287357.034444</v>
+        <v>4126099290.005492</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1144106718538177</v>
+        <v>0.1266843601101772</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02873306898482889</v>
+        <v>0.03161633629574519</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4574527218.18369</v>
+        <v>4457515757.108704</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1676369650758404</v>
+        <v>0.1839656433866029</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02084832482052263</v>
+        <v>0.02262716617165091</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2459198136.335639</v>
+        <v>1979425422.624706</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09788354712189998</v>
+        <v>0.1471874126122668</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0398982831769712</v>
+        <v>0.03014314535192425</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1761886432.836816</v>
+        <v>2453033691.846937</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1212003542601842</v>
+        <v>0.09831738330987816</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03260867403399921</v>
+        <v>0.03909407751362443</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2299346783.756189</v>
+        <v>3519325890.581898</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1207328535534593</v>
+        <v>0.132958965607608</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0369897734904081</v>
+        <v>0.03452279365559988</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2784854479.209187</v>
+        <v>1715968063.064025</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1621448881296628</v>
+        <v>0.1601990213341615</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0190317122081034</v>
+        <v>0.01943736538365446</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1031523141.925935</v>
+        <v>1282580551.910978</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1337396160210166</v>
+        <v>0.1544341964757452</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03591441651990267</v>
+        <v>0.03892739008668951</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3375226976.235461</v>
+        <v>3632496584.632279</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1699111763995507</v>
+        <v>0.1437617494970166</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03760468744973762</v>
+        <v>0.03189732001244096</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3411547375.907235</v>
+        <v>2566296955.686314</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1175152978925109</v>
+        <v>0.1043016359358702</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04182593144545629</v>
+        <v>0.03270554747664037</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1321966902.455093</v>
+        <v>1580449425.847833</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08782486799660086</v>
+        <v>0.1082837822353752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0522460074542777</v>
+        <v>0.04348720472550757</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1797352452.715382</v>
+        <v>2060112618.77758</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1580767015283824</v>
+        <v>0.1375878070286786</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05132734538619839</v>
+        <v>0.04017399611025879</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1855128587.46235</v>
+        <v>2677468606.725551</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07058075003627523</v>
+        <v>0.08970205185834165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04262587887065007</v>
+        <v>0.03910619096929074</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4660641979.100547</v>
+        <v>4361456064.117638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1202386631572584</v>
+        <v>0.1102722191779906</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03329784350843967</v>
+        <v>0.04832812296366675</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2004530710.91346</v>
+        <v>1526659955.078868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1627897660210041</v>
+        <v>0.1658472865590924</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03967213814854339</v>
+        <v>0.03827845370565602</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2601027008.717708</v>
+        <v>3039830159.301724</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134992152781716</v>
+        <v>0.08763798349479443</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04077825696431023</v>
+        <v>0.03211310858222793</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1855420642.180932</v>
+        <v>1457015881.935645</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1097380334211295</v>
+        <v>0.1194625566231106</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03241530315887692</v>
+        <v>0.04112179382894091</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4562139717.649595</v>
+        <v>5298437614.386224</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1692367744115625</v>
+        <v>0.1260361429066215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02238382448455397</v>
+        <v>0.01969969549481517</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2784467364.239431</v>
+        <v>3791921286.770553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092841680410209</v>
+        <v>0.1080662060897235</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02602290834740578</v>
+        <v>0.03201208766144642</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2581531035.822997</v>
+        <v>3438732077.001458</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1337402342989781</v>
+        <v>0.1098724280247168</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03297677462280457</v>
+        <v>0.03030900597414588</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4730114581.30384</v>
+        <v>3765358534.826107</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1747272652250173</v>
+        <v>0.1215485671027652</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01876045560726223</v>
+        <v>0.02472319688771725</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3336637301.44923</v>
+        <v>2648873516.54302</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2044279305888456</v>
+        <v>0.1539471133028271</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05234159482804703</v>
+        <v>0.05356745311358621</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_125.xlsx
+++ b/output/fit_clients/fit_round_125.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1831903342.778974</v>
+        <v>2322389864.644342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09623276917667872</v>
+        <v>0.1091394509039683</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03849967286381286</v>
+        <v>0.03482959084936711</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2210957498.097958</v>
+        <v>1810640570.505853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1706331600771098</v>
+        <v>0.1243763928783205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03465346779593004</v>
+        <v>0.03729267981856101</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5108519772.733978</v>
+        <v>3717246742.98914</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1377888818550293</v>
+        <v>0.1374358570806816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02901482352259763</v>
+        <v>0.03479562460153619</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>124</v>
+      </c>
+      <c r="K4" t="n">
+        <v>122.9697003336486</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2727681454.62186</v>
+        <v>3617267015.377062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07969832005959072</v>
+        <v>0.09459810488110747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04265410555070309</v>
+        <v>0.03884679262235197</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1952185179.180243</v>
+        <v>2833365140.159795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1021007267813619</v>
+        <v>0.1016157231055269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03965086781442775</v>
+        <v>0.0515966153621362</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2719078024.466047</v>
+        <v>2658958467.103406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07644947255100332</v>
+        <v>0.08544192987869338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03281501943674364</v>
+        <v>0.03795814700654958</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3425460423.807494</v>
+        <v>3536015641.995721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2033433006405169</v>
+        <v>0.1929434487273858</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03332465372419454</v>
+        <v>0.02362604600640668</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>125</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1409535517.655809</v>
+        <v>1675957268.629477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1881797097159344</v>
+        <v>0.1397567155902977</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03698891795606802</v>
+        <v>0.03082036290133739</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5898153971.722689</v>
+        <v>4084407006.080904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2146800995866963</v>
+        <v>0.1941377178126502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05322011499602592</v>
+        <v>0.04687896076135925</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>114</v>
+      </c>
+      <c r="J10" t="n">
+        <v>125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>163.2263631965743</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3067172247.225601</v>
+        <v>2596136608.995931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1174342720059373</v>
+        <v>0.1328871718026675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03066889875030614</v>
+        <v>0.04457793192868081</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3287570850.802622</v>
+        <v>3235913269.740794</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1417508100617377</v>
+        <v>0.1245789255444484</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0397781426682576</v>
+        <v>0.0326613645287971</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5293666541.436732</v>
+        <v>3583638868.83986</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06968232056653341</v>
+        <v>0.07186344646888658</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03047102933018941</v>
+        <v>0.02540335582757349</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>124</v>
+      </c>
+      <c r="K13" t="n">
+        <v>114.075565276251</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2569147161.416738</v>
+        <v>2576752400.458786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1308677157275454</v>
+        <v>0.1342961455281658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02836569734802566</v>
+        <v>0.02845313338629692</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58.11793208365362</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1829036895.464763</v>
+        <v>1393764764.119744</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07192643385227381</v>
+        <v>0.09721701524290657</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03647169510046978</v>
+        <v>0.04790990865814573</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2780568309.429801</v>
+        <v>2200285066.621152</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1068305089540314</v>
+        <v>0.07490607158904748</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0499130024737896</v>
+        <v>0.05165217689404433</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4288232801.958501</v>
+        <v>3794769138.131005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1655680703175753</v>
+        <v>0.1484741806090132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04864720420303505</v>
+        <v>0.04958950726448729</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60</v>
+      </c>
+      <c r="J17" t="n">
+        <v>125</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3496195360.381781</v>
+        <v>2926701531.119616</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1138580697665615</v>
+        <v>0.1183354890151627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0296894036883233</v>
+        <v>0.03314351291014076</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>123</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1181080012.609671</v>
+        <v>1190394287.031983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1213150865284283</v>
+        <v>0.189325665008626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01684990571148822</v>
+        <v>0.02134573871446011</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2355602940.744429</v>
+        <v>1923185782.50793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1300703003201654</v>
+        <v>0.1532144281033602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02334895111820511</v>
+        <v>0.02639674272729669</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2383337169.026496</v>
+        <v>2482343795.847633</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09195810339149563</v>
+        <v>0.09963430928278964</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04343603810484226</v>
+        <v>0.0383815582538438</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3380789827.963656</v>
+        <v>2684824829.140813</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1343272053278565</v>
+        <v>0.1114747345629581</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04008076250773061</v>
+        <v>0.04764328329242946</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>956910674.7121723</v>
+        <v>1321379065.954795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1187387410846931</v>
+        <v>0.1621098829384429</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03877438101964484</v>
+        <v>0.03532060854096949</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3759825830.987846</v>
+        <v>3328861866.710107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09774738319310529</v>
+        <v>0.1299651033401197</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02889621088995847</v>
+        <v>0.02694052683047773</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1191221751.920844</v>
+        <v>1266245179.620885</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0850172776260205</v>
+        <v>0.1018807783831935</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02102136471303332</v>
+        <v>0.02284306741266756</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1400623274.849011</v>
+        <v>915048186.6987007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09619152249670254</v>
+        <v>0.1010745650848709</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03305195383183123</v>
+        <v>0.02639477055199238</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3890702375.003055</v>
+        <v>3877198108.07675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09667345877488581</v>
+        <v>0.1066282022475585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02684332723405406</v>
+        <v>0.02337924889010742</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>49</v>
+      </c>
+      <c r="J27" t="n">
+        <v>125</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2940545057.674515</v>
+        <v>3241826198.643687</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1127254101196975</v>
+        <v>0.1329968394811837</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03559021170064307</v>
+        <v>0.04876537336748528</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5456765723.667082</v>
+        <v>4783462431.568039</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09590013795364882</v>
+        <v>0.1071441752602738</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04432778548288203</v>
+        <v>0.04409716287230486</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>115</v>
+      </c>
+      <c r="J29" t="n">
+        <v>125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>175.123134387316</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2334827890.527215</v>
+        <v>1775547122.855299</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08597532080053731</v>
+        <v>0.09693725905036615</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03491548536905638</v>
+        <v>0.03476702905743258</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>916959740.4513865</v>
+        <v>1377045663.691607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0836136257270808</v>
+        <v>0.08809648791264668</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04435376034448873</v>
+        <v>0.05104166482143271</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1317697899.601982</v>
+        <v>1349955056.382586</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1119199861543645</v>
+        <v>0.08591971884404778</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02987258242073383</v>
+        <v>0.03115177176674856</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1966588219.232445</v>
+        <v>2122121832.005589</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1346127067714765</v>
+        <v>0.1819579145586442</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04026038495788425</v>
+        <v>0.05243945112233743</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1006483859.357545</v>
+        <v>1367566244.772441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09962459082767616</v>
+        <v>0.1130580191799016</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02328204125753067</v>
+        <v>0.02766712397869774</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>870672390.2091509</v>
+        <v>1107602269.735379</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07141606382810022</v>
+        <v>0.1073076561006361</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03921473363363669</v>
+        <v>0.0408088157562666</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2512901967.018088</v>
+        <v>2744178648.325843</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1515130391246617</v>
+        <v>0.1421616193659213</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01753667471090667</v>
+        <v>0.02032534878423824</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2003313823.366154</v>
+        <v>1974184995.44658</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07253079538772125</v>
+        <v>0.09425446694089749</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03266268142834557</v>
+        <v>0.04257646892736292</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1753623802.356941</v>
+        <v>2120511320.468362</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1182323814842207</v>
+        <v>0.0903441728202298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03671010705430194</v>
+        <v>0.03279206078900765</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1453988058.842395</v>
+        <v>2020367879.852559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1481907448624666</v>
+        <v>0.1415366618840783</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02664779939033976</v>
+        <v>0.0203346484627852</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1117002424.483437</v>
+        <v>1807706437.359373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1020231547636006</v>
+        <v>0.1321371839747655</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03758256586817069</v>
+        <v>0.04808777370112922</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2264999469.851242</v>
+        <v>2443320013.07029</v>
       </c>
       <c r="F41" t="n">
-        <v>0.119756567099283</v>
+        <v>0.1266796394894011</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04585484911136178</v>
+        <v>0.02871398634405429</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2931920333.791849</v>
+        <v>4077310581.357273</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1056768670399502</v>
+        <v>0.07982529175414708</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04467226698073769</v>
+        <v>0.02868017226161567</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>45</v>
+      </c>
+      <c r="J42" t="n">
+        <v>125</v>
+      </c>
+      <c r="K42" t="n">
+        <v>154.0251328111813</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2332058734.134844</v>
+        <v>2084218161.236178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1581393229442884</v>
+        <v>0.1560805506800176</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02357911883490826</v>
+        <v>0.02322704053831929</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1927415522.306354</v>
+        <v>1616037415.849697</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07374869161170501</v>
+        <v>0.08605959073663143</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02882824457610389</v>
+        <v>0.03665905630243206</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1937752906.18892</v>
+        <v>2218554020.408899</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1843326256931112</v>
+        <v>0.1543987642735614</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03561033828798552</v>
+        <v>0.04393609387369213</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4496578898.351907</v>
+        <v>4054360974.399668</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1339697673788981</v>
+        <v>0.1150214084936213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05880663950490338</v>
+        <v>0.04848763640987688</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>72</v>
+      </c>
+      <c r="J46" t="n">
+        <v>124</v>
+      </c>
+      <c r="K46" t="n">
+        <v>150.0925952411706</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3810549592.636346</v>
+        <v>3450402230.370832</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1237992590953676</v>
+        <v>0.1385412015526737</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04440718833288834</v>
+        <v>0.05908772116166935</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>55</v>
+      </c>
+      <c r="J47" t="n">
+        <v>125</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3778827837.434928</v>
+        <v>3187958522.366034</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06689331761952093</v>
+        <v>0.09760939662578468</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02423134015563022</v>
+        <v>0.03159656788061863</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>49</v>
+      </c>
+      <c r="J48" t="n">
+        <v>124</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.71403393250026</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1575310405.740455</v>
+        <v>1210861461.928967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689412232437404</v>
+        <v>0.178144735339111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02827172838356503</v>
+        <v>0.03327668431115904</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3489908629.08243</v>
+        <v>3769742331.529658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1166597089470236</v>
+        <v>0.1323879903183621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05205982769453752</v>
+        <v>0.03791518403987788</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>43</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124</v>
+      </c>
+      <c r="K50" t="n">
+        <v>128.116495493529</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1302069827.82493</v>
+        <v>1175380659.983061</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434418427651689</v>
+        <v>0.1618750925552723</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0466297995902223</v>
+        <v>0.04192234490994689</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5081353263.900826</v>
+        <v>3252788839.643424</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1033403175969358</v>
+        <v>0.1276046050779353</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04947218846013721</v>
+        <v>0.04667462147550266</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>96</v>
+      </c>
+      <c r="J52" t="n">
+        <v>123</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3024113935.107074</v>
+        <v>3703340678.528055</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1664635358845765</v>
+        <v>0.1396353354278004</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0218962660058346</v>
+        <v>0.023795927090725</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>125</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4508897335.251461</v>
+        <v>3003194518.085671</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1433508375169391</v>
+        <v>0.1553191857419866</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0427142261274263</v>
+        <v>0.04261813417025287</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>57</v>
+      </c>
+      <c r="J54" t="n">
+        <v>122</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3904137170.888204</v>
+        <v>4171170735.832964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2119252848898413</v>
+        <v>0.1673220763750584</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02651138174306443</v>
+        <v>0.02952619699755083</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>57</v>
+      </c>
+      <c r="J55" t="n">
+        <v>125</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1567948730.347363</v>
+        <v>1363051640.164805</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137808906551789</v>
+        <v>0.1128574179795382</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04881541368241658</v>
+        <v>0.05233933252949139</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3610530933.96876</v>
+        <v>3966014708.465298</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1179216172017866</v>
+        <v>0.1168501566669128</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02742555006833483</v>
+        <v>0.02174425549376921</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>48</v>
+      </c>
+      <c r="J57" t="n">
+        <v>125</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1490296395.977913</v>
+        <v>1902725215.513045</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1963799823180307</v>
+        <v>0.1844953217093916</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02983681848848507</v>
+        <v>0.03197093983182873</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4170468251.835301</v>
+        <v>4644921273.212061</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09856682784366355</v>
+        <v>0.09313148521805142</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03181374051380993</v>
+        <v>0.03299499875494998</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>61</v>
+      </c>
+      <c r="J59" t="n">
+        <v>124</v>
+      </c>
+      <c r="K59" t="n">
+        <v>139.5960047563923</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3502563830.686765</v>
+        <v>3597749569.863113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1529668966662669</v>
+        <v>0.1684390371686298</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02924958681702238</v>
+        <v>0.02017529319218402</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>125</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3395380295.466355</v>
+        <v>3078446729.547502</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1624392421620275</v>
+        <v>0.1100659294829213</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02487344560899843</v>
+        <v>0.02152453380916633</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1883564138.199737</v>
+        <v>1836619277.733114</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1899803257555456</v>
+        <v>0.1598550533131241</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03174831407311832</v>
+        <v>0.04306292618356377</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5455666636.621069</v>
+        <v>4932336143.440424</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08790786750530984</v>
+        <v>0.08333523199038106</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04204528773016499</v>
+        <v>0.0321151916430549</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>62</v>
+      </c>
+      <c r="J63" t="n">
+        <v>124</v>
+      </c>
+      <c r="K63" t="n">
+        <v>135.8711356947791</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4005346280.65537</v>
+        <v>4423874074.486582</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1262202466225861</v>
+        <v>0.1497329726478031</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02519982858080648</v>
+        <v>0.03149235813384393</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>124</v>
+      </c>
+      <c r="K64" t="n">
+        <v>143.1101193648066</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4127367044.030333</v>
+        <v>6007672521.475483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110450552500961</v>
+        <v>0.1257045276761749</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01953451902294914</v>
+        <v>0.02139308659043819</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>104</v>
+      </c>
+      <c r="J65" t="n">
+        <v>125</v>
+      </c>
+      <c r="K65" t="n">
+        <v>153.0441926102806</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4878400452.820102</v>
+        <v>4952135543.612218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1524971133123587</v>
+        <v>0.1160317728833301</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04959855872808799</v>
+        <v>0.03469390330499946</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>61</v>
+      </c>
+      <c r="J66" t="n">
+        <v>125</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3254735739.952815</v>
+        <v>3042747883.498267</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07537445673227446</v>
+        <v>0.07381886732030377</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03136054309808117</v>
+        <v>0.04854221172834755</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4157207315.143444</v>
+        <v>5019102188.898003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1210199342881668</v>
+        <v>0.1385350231288646</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04724684093821112</v>
+        <v>0.03294246140141684</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>63</v>
+      </c>
+      <c r="J68" t="n">
+        <v>124</v>
+      </c>
+      <c r="K68" t="n">
+        <v>139.5209419908084</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2430598437.742646</v>
+        <v>2177623671.581816</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1307967041664518</v>
+        <v>0.1768279857162361</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05652929879601733</v>
+        <v>0.04031483028628563</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2586856650.813813</v>
+        <v>3491257713.259001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.070617368211324</v>
+        <v>0.0851004635455638</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03019277306101099</v>
+        <v>0.04034646642748329</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>125</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4828135380.977369</v>
+        <v>5354113063.855876</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1121684211335083</v>
+        <v>0.117627793690755</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03087618817261578</v>
+        <v>0.02214958347940918</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>101</v>
+      </c>
+      <c r="J71" t="n">
+        <v>125</v>
+      </c>
+      <c r="K71" t="n">
+        <v>152.4697667238829</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1937190723.281065</v>
+        <v>1934097823.260068</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07011555803435474</v>
+        <v>0.0677108425920661</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03487916230970772</v>
+        <v>0.03304117854182503</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2629795790.00025</v>
+        <v>2878882090.368164</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07948501191722504</v>
+        <v>0.1010655829848825</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04637430485797721</v>
+        <v>0.04487338985071477</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3032714470.089344</v>
+        <v>2883398881.292031</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1813195610545994</v>
+        <v>0.1243163916526036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02868732227825989</v>
+        <v>0.02273982997861943</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2260900978.046477</v>
+        <v>1639624352.791254</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1657111431785553</v>
+        <v>0.1479659885740304</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02677393423578766</v>
+        <v>0.02386336890186332</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4457361392.527925</v>
+        <v>3882583553.274179</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1079423800995603</v>
+        <v>0.09162256295420383</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02410721104658407</v>
+        <v>0.0242331854776434</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>58</v>
+      </c>
+      <c r="J76" t="n">
+        <v>124</v>
+      </c>
+      <c r="K76" t="n">
+        <v>110.1396700733971</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2085389791.339596</v>
+        <v>1456676830.738773</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1448145333950359</v>
+        <v>0.1260418905387214</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0260079184218496</v>
+        <v>0.0256013173739576</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3311109104.360868</v>
+        <v>3688951156.086425</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08895617528865372</v>
+        <v>0.1180859223356583</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05402039399678968</v>
+        <v>0.04218520911846659</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>61</v>
+      </c>
+      <c r="J78" t="n">
+        <v>125</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1194756585.393995</v>
+        <v>1693666639.301659</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1435180009965673</v>
+        <v>0.1450489688593732</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02602749374897407</v>
+        <v>0.03460326652312691</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4173815949.989842</v>
+        <v>3752086701.856941</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08461598049754047</v>
+        <v>0.08909368665477067</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0281005506123868</v>
+        <v>0.02856735725866577</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>60</v>
+      </c>
+      <c r="J80" t="n">
+        <v>125</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4126099290.005492</v>
+        <v>3710697162.010551</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1266843601101772</v>
+        <v>0.09430470230355836</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03161633629574519</v>
+        <v>0.02469935937090642</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>56</v>
+      </c>
+      <c r="J81" t="n">
+        <v>125</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4457515757.108704</v>
+        <v>3800230121.534233</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1839656433866029</v>
+        <v>0.1828467658480848</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02262716617165091</v>
+        <v>0.02901935208240097</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>87</v>
+      </c>
+      <c r="J82" t="n">
+        <v>124</v>
+      </c>
+      <c r="K82" t="n">
+        <v>139.2644228496057</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1979425422.624706</v>
+        <v>1843857816.271068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1471874126122668</v>
+        <v>0.146261308555222</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03014314535192425</v>
+        <v>0.03029575241657797</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2453033691.846937</v>
+        <v>2328870407.56609</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09831738330987816</v>
+        <v>0.1053402515189586</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03909407751362443</v>
+        <v>0.03486724870026812</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3519325890.581898</v>
+        <v>2617329785.44295</v>
       </c>
       <c r="F85" t="n">
-        <v>0.132958965607608</v>
+        <v>0.1733098633806713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03452279365559988</v>
+        <v>0.04058270660891937</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1715968063.064025</v>
+        <v>2662909930.943618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1601990213341615</v>
+        <v>0.1657369503180079</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01943736538365446</v>
+        <v>0.0187567833154089</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1282580551.910978</v>
+        <v>1331364742.874276</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1544341964757452</v>
+        <v>0.1174171245821698</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03892739008668951</v>
+        <v>0.03681035445459637</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3632496584.632279</v>
+        <v>3114136888.949069</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1437617494970166</v>
+        <v>0.1600119989978222</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03189732001244096</v>
+        <v>0.02426863147141475</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2566296955.686314</v>
+        <v>2692193189.235943</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1043016359358702</v>
+        <v>0.1513658088125138</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03270554747664037</v>
+        <v>0.03804736157470592</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="n">
+        <v>66.89510027979195</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1580449425.847833</v>
+        <v>2013776817.78679</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082837822353752</v>
+        <v>0.1204919081737633</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04348720472550757</v>
+        <v>0.05281351241299457</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2060112618.77758</v>
+        <v>1355368726.480422</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1375878070286786</v>
+        <v>0.1505745232203732</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04017399611025879</v>
+        <v>0.04215354972416207</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2677468606.725551</v>
+        <v>2709613325.653873</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08970205185834165</v>
+        <v>0.06757389698292432</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03910619096929074</v>
+        <v>0.03366376969082933</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4361456064.117638</v>
+        <v>4976661823.831799</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1102722191779906</v>
+        <v>0.1254825881721941</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04832812296366675</v>
+        <v>0.0484648478254162</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>57</v>
+      </c>
+      <c r="J93" t="n">
+        <v>124</v>
+      </c>
+      <c r="K93" t="n">
+        <v>139.1987245564565</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1526659955.078868</v>
+        <v>2518211961.530504</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1658472865590924</v>
+        <v>0.1418495768004678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03827845370565602</v>
+        <v>0.03840306353205065</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3039830159.301724</v>
+        <v>2636405810.16876</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08763798349479443</v>
+        <v>0.1363740557723297</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03211310858222793</v>
+        <v>0.04102711380692144</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1457015881.935645</v>
+        <v>1840480423.842988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1194625566231106</v>
+        <v>0.09258348104640161</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04112179382894091</v>
+        <v>0.03958344619113983</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5298437614.386224</v>
+        <v>4006736960.084476</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1260361429066215</v>
+        <v>0.172076868534913</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01969969549481517</v>
+        <v>0.02091381467609321</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>60</v>
+      </c>
+      <c r="J97" t="n">
+        <v>124</v>
+      </c>
+      <c r="K97" t="n">
+        <v>143.7332555619451</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3791921286.770553</v>
+        <v>3088721314.213458</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1080662060897235</v>
+        <v>0.1298598393557085</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03201208766144642</v>
+        <v>0.02106072846607931</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3438732077.001458</v>
+        <v>2323508707.984448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098724280247168</v>
+        <v>0.1318684012428723</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03030900597414588</v>
+        <v>0.02604970579057555</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3765358534.826107</v>
+        <v>4336429361.277787</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1215485671027652</v>
+        <v>0.1083755256626768</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02472319688771725</v>
+        <v>0.021587756991619</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>51</v>
+      </c>
+      <c r="J100" t="n">
+        <v>125</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2648873516.54302</v>
+        <v>2675713745.863328</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1539471133028271</v>
+        <v>0.1799752122894803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05356745311358621</v>
+        <v>0.04616105519159949</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
